--- a/main_data.xlsx
+++ b/main_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreeLance\covid19countiesprediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B5872-A02B-4695-A563-28C38F6F5A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5114909C-3C4A-4398-BC6B-C2F587A6CA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -632,11 +632,11 @@
       <c r="N1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -679,8 +679,11 @@
       <c r="N2">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -723,8 +726,11 @@
       <c r="N3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -767,8 +773,11 @@
       <c r="N4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -811,8 +820,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -855,8 +867,11 @@
       <c r="N6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -899,8 +914,11 @@
       <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -943,8 +961,11 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -987,8 +1008,11 @@
       <c r="N9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1031,8 +1055,11 @@
       <c r="N10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1102,11 @@
       <c r="N11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1119,8 +1149,11 @@
       <c r="N12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1163,8 +1196,11 @@
       <c r="N13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1207,8 +1243,11 @@
       <c r="N14">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1251,8 +1290,11 @@
       <c r="N15">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1295,8 +1337,11 @@
       <c r="N16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1384,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1383,8 +1431,11 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1427,8 +1478,11 @@
       <c r="N19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="N20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1515,8 +1572,11 @@
       <c r="N21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1559,8 +1619,11 @@
       <c r="N22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1603,8 +1666,11 @@
       <c r="N23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1647,8 +1713,11 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1691,8 +1760,11 @@
       <c r="N25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1735,8 +1807,11 @@
       <c r="N26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1779,8 +1854,11 @@
       <c r="N27">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1823,8 +1901,11 @@
       <c r="N28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1867,8 +1948,11 @@
       <c r="N29" s="1">
         <v>3285</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1911,8 +1995,11 @@
       <c r="N30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1955,8 +2042,11 @@
       <c r="N31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1999,8 +2089,11 @@
       <c r="N32">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2043,8 +2136,11 @@
       <c r="N33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2087,8 +2183,11 @@
       <c r="N34">
         <v>638</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2131,8 +2230,11 @@
       <c r="N35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2175,8 +2277,11 @@
       <c r="N36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2219,8 +2324,11 @@
       <c r="N37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2263,8 +2371,11 @@
       <c r="N38">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2307,8 +2418,11 @@
       <c r="N39">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2351,8 +2465,11 @@
       <c r="N40">
         <v>968</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2395,8 +2512,11 @@
       <c r="N41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2439,8 +2559,11 @@
       <c r="N42">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2483,8 +2606,11 @@
       <c r="N43">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2527,8 +2653,11 @@
       <c r="N44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2571,8 +2700,11 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2615,8 +2747,11 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2659,8 +2794,11 @@
       <c r="N47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2703,8 +2841,11 @@
       <c r="N48" s="1">
         <v>2260</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2747,8 +2888,11 @@
       <c r="N49">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2791,8 +2935,11 @@
       <c r="N50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2835,8 +2982,11 @@
       <c r="N51">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2879,8 +3029,11 @@
       <c r="N52">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3076,11 @@
       <c r="N53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2967,8 +3123,11 @@
       <c r="N54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3011,8 +3170,11 @@
       <c r="N55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3055,8 +3217,11 @@
       <c r="N56" s="1">
         <v>4691</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3099,8 +3264,11 @@
       <c r="N57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3143,8 +3311,11 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3187,8 +3358,12 @@
       <c r="N59">
         <v>17856</v>
       </c>
+      <c r="O59">
+        <v>3537</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>